--- a/Running projects/State Life Insurance, Karachi/PO/003- Purchase order- for copper pipe Crescent corp - phase II.xlsx
+++ b/Running projects/State Life Insurance, Karachi/PO/003- Purchase order- for copper pipe Crescent corp - phase II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\State Life Insurance, Karachi\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40123220-A807-4A15-8869-AFC08E0BDCA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271D829F-A7DA-416F-ABCF-614B996C9C07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="59">
   <si>
     <t>S No.</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Supply of Copper pipe 1-1/2" Dia</t>
   </si>
   <si>
-    <t>Supply of Copper L-Type  3/8" Dia</t>
-  </si>
-  <si>
     <t>Supply of Copper L-Type 1/2" Dia</t>
   </si>
   <si>
@@ -217,6 +214,12 @@
   </si>
   <si>
     <t>Supply of Copper pipe  7/8" Dia</t>
+  </si>
+  <si>
+    <t>DELITE</t>
+  </si>
+  <si>
+    <t>Crescent</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -576,6 +579,9 @@
     <xf numFmtId="165" fontId="11" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -614,6 +620,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1191,13 +1203,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>105244</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>67583</xdr:rowOff>
@@ -1225,6 +1237,50 @@
         <a:xfrm>
           <a:off x="13668375" y="409575"/>
           <a:ext cx="3362794" cy="6506483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>362910</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>191108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2566684-F0EA-40B0-B944-507B536D75FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9239250" y="12830175"/>
+          <a:ext cx="6878010" cy="4353533"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1502,7 +1558,7 @@
   <dimension ref="A10:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1536,7 +1592,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1"/>
       <c r="F13" s="8"/>
@@ -1547,22 +1603,22 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="1:6" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
@@ -1573,28 +1629,28 @@
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
     </row>
     <row r="19" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
@@ -1639,7 +1695,7 @@
         <v>43</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26" s="10">
         <v>4570</v>
@@ -1667,7 +1723,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" s="10">
         <v>7210</v>
@@ -1695,7 +1751,7 @@
         <v>44</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" s="10">
         <v>10420</v>
@@ -1717,13 +1773,13 @@
         <v>3</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="4">
         <v>3</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" s="10">
         <v>16270</v>
@@ -1744,7 +1800,7 @@
         <v>14</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" s="10">
         <v>13230</v>
@@ -1772,7 +1828,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" s="10">
         <v>19470</v>
@@ -1800,7 +1856,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" s="10">
         <v>23160</v>
@@ -1828,7 +1884,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33" s="10">
         <v>26800</v>
@@ -1856,7 +1912,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E34" s="10">
         <v>36440</v>
@@ -1876,11 +1932,11 @@
     <row r="35" spans="1:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="14">
         <f>SUM(F26:F34)</f>
         <v>1588130</v>
@@ -1889,13 +1945,13 @@
       <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
+      <c r="A36" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
       <c r="F36" s="15">
         <f>F35*10%</f>
         <v>158813</v>
@@ -1904,13 +1960,13 @@
       <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="16">
         <f>F35-F36</f>
         <v>1429317</v>
@@ -1919,13 +1975,13 @@
       <c r="H37" s="18"/>
     </row>
     <row r="38" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
       <c r="F38" s="16">
         <f>F37*18%</f>
         <v>257277.06</v>
@@ -1934,13 +1990,13 @@
       <c r="H38" s="18"/>
     </row>
     <row r="39" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
       <c r="F39" s="16">
         <f>F38+F37</f>
         <v>1686594.06</v>
@@ -1949,14 +2005,14 @@
       <c r="H39" s="18"/>
     </row>
     <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
     </row>
     <row r="44" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -1988,27 +2044,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78953A4D-2A0C-4776-B286-232C1BB2DD8E}">
-  <dimension ref="C4:P55"/>
+  <dimension ref="C4:Q74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="51.140625" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C4" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
         <v>10</v>
       </c>
@@ -2021,31 +2078,32 @@
       <c r="F6" s="10">
         <v>242.667</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="10"/>
+      <c r="H6" s="19">
         <f>F6*D6</f>
         <v>243637.66800000001</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>4570</v>
       </c>
-      <c r="L6">
-        <f>K6/20</f>
+      <c r="M6">
+        <f>L6/20</f>
         <v>228.5</v>
       </c>
-      <c r="M6">
-        <f>L6*1.18</f>
+      <c r="N6">
+        <f>M6*1.18</f>
         <v>269.63</v>
       </c>
-      <c r="N6">
-        <f>M6*0.9</f>
+      <c r="O6">
+        <f>N6*0.9</f>
         <v>242.667</v>
       </c>
-      <c r="P6">
-        <f>M6*10%</f>
+      <c r="Q6">
+        <f>N6*10%</f>
         <v>26.963000000000001</v>
       </c>
     </row>
-    <row r="7" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="17" t="s">
         <v>11</v>
       </c>
@@ -2058,27 +2116,28 @@
       <c r="F7" s="10">
         <v>382.851</v>
       </c>
-      <c r="G7" s="19">
-        <f t="shared" ref="G7:G16" si="0">F7*D7</f>
+      <c r="G7" s="10"/>
+      <c r="H7" s="19">
+        <f t="shared" ref="H7:H16" si="0">F7*D7</f>
         <v>86524.326000000001</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>7210</v>
       </c>
-      <c r="L7">
-        <f t="shared" ref="L7:L16" si="1">K7/20</f>
+      <c r="M7">
+        <f t="shared" ref="M7:M16" si="1">L7/20</f>
         <v>360.5</v>
       </c>
-      <c r="M7">
-        <f t="shared" ref="M7:M14" si="2">L7*1.18</f>
+      <c r="N7">
+        <f t="shared" ref="N7:N14" si="2">M7*1.18</f>
         <v>425.39</v>
       </c>
-      <c r="N7">
-        <f t="shared" ref="N7:N14" si="3">M7*0.9</f>
+      <c r="O7">
+        <f t="shared" ref="O7:O14" si="3">N7*0.9</f>
         <v>382.851</v>
       </c>
     </row>
-    <row r="8" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="17" t="s">
         <v>12</v>
       </c>
@@ -2091,27 +2150,28 @@
       <c r="F8" s="10">
         <v>553.30200000000002</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="10"/>
+      <c r="H8" s="19">
         <f t="shared" si="0"/>
         <v>584286.91200000001</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>10420</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f t="shared" si="1"/>
         <v>521</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <f t="shared" si="2"/>
         <v>614.78</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <f t="shared" si="3"/>
         <v>553.30200000000002</v>
       </c>
     </row>
-    <row r="9" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
@@ -2124,27 +2184,28 @@
       <c r="F9" s="10">
         <v>702.51299999999992</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="10"/>
+      <c r="H9" s="19">
         <f t="shared" si="0"/>
         <v>383572.09799999994</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>13230</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f t="shared" si="1"/>
         <v>661.5</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <f t="shared" si="2"/>
         <v>780.56999999999994</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <f t="shared" si="3"/>
         <v>702.51299999999992</v>
       </c>
     </row>
-    <row r="10" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="17" t="s">
         <v>14</v>
       </c>
@@ -2157,27 +2218,28 @@
       <c r="F10" s="10">
         <v>863.93700000000001</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="10"/>
+      <c r="H10" s="19">
         <f t="shared" si="0"/>
         <v>34557.480000000003</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>16270</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f t="shared" si="1"/>
         <v>813.5</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <f t="shared" si="2"/>
         <v>959.93</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <f t="shared" si="3"/>
         <v>863.93700000000001</v>
       </c>
     </row>
-    <row r="11" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
         <v>21</v>
       </c>
@@ -2190,23 +2252,24 @@
       <c r="F11" s="10">
         <v>930.6</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="10"/>
+      <c r="H11" s="19">
         <f t="shared" si="0"/>
         <v>144243</v>
       </c>
-      <c r="K11" s="26">
+      <c r="L11" s="26">
         <v>20680</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f t="shared" si="1"/>
         <v>1034</v>
       </c>
-      <c r="M11">
-        <f>L11*0.9</f>
+      <c r="N11">
+        <f>M11*0.9</f>
         <v>930.6</v>
       </c>
     </row>
-    <row r="12" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="17" t="s">
         <v>15</v>
       </c>
@@ -2219,27 +2282,28 @@
       <c r="F12" s="10">
         <v>1229.7959999999998</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="10"/>
+      <c r="H12" s="19">
         <f t="shared" si="0"/>
         <v>121749.80399999999</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>23160</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <f t="shared" si="1"/>
         <v>1158</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <f t="shared" si="2"/>
         <v>1366.4399999999998</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <f t="shared" si="3"/>
         <v>1229.7959999999998</v>
       </c>
     </row>
-    <row r="13" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
@@ -2252,23 +2316,24 @@
       <c r="F13" s="10">
         <v>1281</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="10"/>
+      <c r="H13" s="19">
         <f t="shared" si="0"/>
         <v>238266</v>
       </c>
-      <c r="K13" s="26">
+      <c r="L13" s="26">
         <v>28460</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <f t="shared" si="1"/>
         <v>1423</v>
       </c>
-      <c r="M13">
-        <f>L13*0.9</f>
+      <c r="N13">
+        <f>M13*0.9</f>
         <v>1280.7</v>
       </c>
     </row>
-    <row r="14" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
         <v>16</v>
       </c>
@@ -2281,27 +2346,28 @@
       <c r="F14" s="10">
         <v>1668.402</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="10"/>
+      <c r="H14" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>31420</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <f t="shared" si="1"/>
         <v>1571</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <f t="shared" si="2"/>
         <v>1853.78</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <f t="shared" si="3"/>
         <v>1668.402</v>
       </c>
     </row>
-    <row r="15" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
         <v>23</v>
       </c>
@@ -2314,23 +2380,24 @@
       <c r="F15" s="10">
         <v>1742</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="10"/>
+      <c r="H15" s="19">
         <f t="shared" si="0"/>
         <v>487760</v>
       </c>
-      <c r="K15" s="26">
+      <c r="L15" s="26">
         <v>38700</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <f t="shared" si="1"/>
         <v>1935</v>
       </c>
-      <c r="M15">
-        <f>L15*0.9</f>
+      <c r="N15">
+        <f>M15*0.9</f>
         <v>1741.5</v>
       </c>
     </row>
-    <row r="16" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="17" t="s">
         <v>24</v>
       </c>
@@ -2343,800 +2410,1138 @@
       <c r="F16" s="10">
         <v>1963</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="10"/>
+      <c r="H16" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="26">
+      <c r="L16" s="26">
         <v>43630</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <f t="shared" si="1"/>
         <v>2181.5</v>
       </c>
-      <c r="M16">
-        <f>L16*0.9</f>
+      <c r="N16">
+        <f>M16*0.9</f>
         <v>1963.3500000000001</v>
       </c>
     </row>
-    <row r="17" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
-      <c r="G17" s="28">
-        <f>SUM(G6:G16)</f>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28">
+        <f>SUM(H6:H16)</f>
         <v>2324597.2879999997</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C23" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="35">
         <v>0</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="37">
         <v>2910</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="37"/>
+      <c r="H23" s="15">
         <f>F23*D23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C24" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="35">
         <v>17</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="37">
         <v>4570</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="37"/>
+      <c r="H24" s="15">
         <f>F24*D24</f>
         <v>77690</v>
       </c>
-      <c r="I24" s="31">
+      <c r="J24" s="31">
         <f>F24*19</f>
         <v>86830</v>
       </c>
-      <c r="J24" s="31">
-        <f>I24*1.18</f>
+      <c r="K24" s="31">
+        <f>J24*1.18</f>
         <v>102459.4</v>
       </c>
-      <c r="K24" s="31">
-        <f>J24*0.9</f>
+      <c r="L24" s="31">
+        <f>K24*0.9</f>
         <v>92213.459999999992</v>
       </c>
-      <c r="M24">
-        <f t="shared" ref="M24:M34" si="4">D24/20</f>
+      <c r="N24">
+        <f t="shared" ref="N24:N34" si="4">D24/20</f>
         <v>0.85</v>
       </c>
-      <c r="N24">
-        <f>M24*19</f>
+      <c r="O24">
+        <f>N24*19</f>
         <v>16.149999999999999</v>
       </c>
     </row>
-    <row r="25" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C25" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="35">
         <v>4</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" s="37">
         <v>7210</v>
       </c>
-      <c r="G25" s="15">
-        <f t="shared" ref="G25:G34" si="5">F25*D25</f>
+      <c r="G25" s="37"/>
+      <c r="H25" s="15">
+        <f t="shared" ref="H25:H34" si="5">F25*D25</f>
         <v>28840</v>
       </c>
-      <c r="I25" s="31">
-        <f t="shared" ref="I25:I34" si="6">F25*19</f>
+      <c r="J25" s="31">
+        <f t="shared" ref="J25:J34" si="6">F25*19</f>
         <v>136990</v>
       </c>
-      <c r="J25" s="31">
-        <f t="shared" ref="J25:J34" si="7">I25*1.18</f>
+      <c r="K25" s="31">
+        <f t="shared" ref="K25:K34" si="7">J25*1.18</f>
         <v>161648.19999999998</v>
       </c>
-      <c r="K25" s="31">
-        <f t="shared" ref="K25:K34" si="8">J25*0.9</f>
+      <c r="L25" s="31">
+        <f t="shared" ref="L25:L34" si="8">K25*0.9</f>
         <v>145483.37999999998</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="N25">
-        <f t="shared" ref="N25:N34" si="9">M25*19</f>
+      <c r="O25">
+        <f t="shared" ref="O25:O34" si="9">N25*19</f>
         <v>3.8000000000000003</v>
       </c>
     </row>
-    <row r="26" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C26" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="35">
         <v>18</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F26" s="37">
         <v>10420</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="37"/>
+      <c r="H26" s="15">
         <f t="shared" si="5"/>
         <v>187560</v>
       </c>
-      <c r="I26" s="31">
+      <c r="J26" s="31">
         <f t="shared" si="6"/>
         <v>197980</v>
       </c>
-      <c r="J26" s="31">
+      <c r="K26" s="31">
         <f t="shared" si="7"/>
         <v>233616.4</v>
       </c>
-      <c r="K26" s="31">
+      <c r="L26" s="31">
         <f t="shared" si="8"/>
         <v>210254.76</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <f t="shared" si="9"/>
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="27" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C27" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="35">
         <v>15</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" s="37">
         <v>13230</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="37"/>
+      <c r="H27" s="15">
         <f t="shared" si="5"/>
         <v>198450</v>
       </c>
-      <c r="I27" s="31">
+      <c r="J27" s="31">
         <f t="shared" si="6"/>
         <v>251370</v>
       </c>
-      <c r="J27" s="31">
+      <c r="K27" s="31">
         <f t="shared" si="7"/>
         <v>296616.59999999998</v>
       </c>
-      <c r="K27" s="31">
+      <c r="L27" s="31">
         <f t="shared" si="8"/>
         <v>266954.94</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <f t="shared" si="9"/>
         <v>14.25</v>
       </c>
     </row>
-    <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C28" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" s="37">
         <v>16270</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="37"/>
+      <c r="H28" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I28" s="31">
+      <c r="J28" s="31">
         <f t="shared" si="6"/>
         <v>309130</v>
       </c>
-      <c r="J28" s="31">
+      <c r="K28" s="31">
         <f t="shared" si="7"/>
         <v>364773.39999999997</v>
       </c>
-      <c r="K28" s="31">
+      <c r="L28" s="31">
         <f t="shared" si="8"/>
         <v>328296.06</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C29" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="35">
         <v>2</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29" s="38">
         <v>17525</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="38"/>
+      <c r="H29" s="15">
         <f t="shared" si="5"/>
         <v>35050</v>
       </c>
-      <c r="I29" s="31">
+      <c r="J29" s="31">
         <f t="shared" si="6"/>
         <v>332975</v>
       </c>
-      <c r="J29" s="31">
+      <c r="K29" s="31">
         <f t="shared" si="7"/>
         <v>392910.5</v>
       </c>
-      <c r="K29" s="31">
+      <c r="L29" s="31">
         <f t="shared" si="8"/>
         <v>353619.45</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <f t="shared" si="9"/>
         <v>1.9000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C30" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="35">
         <v>1</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F30" s="37">
         <v>23160</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="37"/>
+      <c r="H30" s="15">
         <f t="shared" si="5"/>
         <v>23160</v>
       </c>
-      <c r="I30" s="31">
+      <c r="J30" s="31">
         <f t="shared" si="6"/>
         <v>440040</v>
       </c>
-      <c r="J30" s="31">
+      <c r="K30" s="31">
         <f t="shared" si="7"/>
         <v>519247.19999999995</v>
       </c>
-      <c r="K30" s="31">
+      <c r="L30" s="31">
         <f t="shared" si="8"/>
         <v>467322.48</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <f t="shared" si="9"/>
         <v>0.95000000000000007</v>
       </c>
     </row>
-    <row r="31" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C31" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="35">
         <v>2</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" s="38">
         <v>24119</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="38"/>
+      <c r="H31" s="15">
         <f t="shared" si="5"/>
         <v>48238</v>
       </c>
-      <c r="I31" s="31">
+      <c r="J31" s="31">
         <f t="shared" si="6"/>
         <v>458261</v>
       </c>
-      <c r="J31" s="31">
+      <c r="K31" s="31">
         <f t="shared" si="7"/>
         <v>540747.98</v>
       </c>
-      <c r="K31" s="31">
+      <c r="L31" s="31">
         <f t="shared" si="8"/>
         <v>486673.18199999997</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <f t="shared" si="9"/>
         <v>1.9000000000000001</v>
       </c>
     </row>
-    <row r="32" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C32" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F32" s="37">
         <v>31420</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="37"/>
+      <c r="H32" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I32" s="31">
+      <c r="J32" s="31">
         <f t="shared" si="6"/>
         <v>596980</v>
       </c>
-      <c r="J32" s="31">
+      <c r="K32" s="31">
         <f t="shared" si="7"/>
         <v>704436.39999999991</v>
       </c>
-      <c r="K32" s="31">
+      <c r="L32" s="31">
         <f t="shared" si="8"/>
         <v>633992.75999999989</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C33" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="35">
         <v>11</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="38">
         <v>32797</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="38"/>
+      <c r="H33" s="15">
         <f t="shared" si="5"/>
         <v>360767</v>
       </c>
-      <c r="I33" s="31">
+      <c r="J33" s="31">
         <f t="shared" si="6"/>
         <v>623143</v>
       </c>
-      <c r="J33" s="31">
+      <c r="K33" s="31">
         <f t="shared" si="7"/>
         <v>735308.74</v>
       </c>
-      <c r="K33" s="31">
+      <c r="L33" s="31">
         <f t="shared" si="8"/>
         <v>661777.86600000004</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <f t="shared" si="4"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <f t="shared" si="9"/>
         <v>10.450000000000001</v>
       </c>
     </row>
-    <row r="34" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C34" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" s="36"/>
       <c r="E34" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34" s="37">
         <v>41100</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="37"/>
+      <c r="H34" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I34" s="31">
+      <c r="J34" s="31">
         <f t="shared" si="6"/>
         <v>780900</v>
       </c>
-      <c r="J34" s="31">
+      <c r="K34" s="31">
         <f t="shared" si="7"/>
         <v>921462</v>
       </c>
-      <c r="K34" s="31">
+      <c r="L34" s="31">
         <f t="shared" si="8"/>
         <v>829315.8</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C35" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="33">
-        <f>SUM(G23:G34)</f>
+    <row r="35" spans="3:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C35" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="33">
+        <f>SUM(H23:H34)</f>
         <v>959755</v>
       </c>
     </row>
-    <row r="36" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C36" s="49" t="s">
+    <row r="36" spans="3:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C36" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="33">
+        <f>H35*10%</f>
+        <v>95975.5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C37" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="33">
-        <f>G35*10%</f>
-        <v>95975.5</v>
-      </c>
-    </row>
-    <row r="37" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C37" s="49" t="s">
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="33">
+        <f>H35-H36</f>
+        <v>863779.5</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C38" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="33">
-        <f>G35-G36</f>
-        <v>863779.5</v>
-      </c>
-    </row>
-    <row r="38" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C38" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="33">
-        <f>G37*18%</f>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="33">
+        <f>H37*18%</f>
         <v>155480.31</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>20680</v>
       </c>
-      <c r="L38">
-        <f>K38/118%</f>
+      <c r="M38">
+        <f>L38/118%</f>
         <v>17525.423728813559</v>
       </c>
     </row>
-    <row r="39" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C39" s="49" t="s">
+    <row r="39" spans="3:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C39" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="33">
+        <f>H38+H37</f>
+        <v>1019259.81</v>
+      </c>
+      <c r="L39">
+        <v>28460</v>
+      </c>
+      <c r="M39">
+        <f>L39/118%</f>
+        <v>24118.644067796613</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C40" s="32"/>
+      <c r="L40">
+        <v>38700</v>
+      </c>
+      <c r="M40">
+        <f>L40/118%</f>
+        <v>32796.610169491527</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C41" s="32"/>
+    </row>
+    <row r="42" spans="3:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C42" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+    </row>
+    <row r="43" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F43" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C44" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="4">
+        <v>43</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="10">
+        <v>4570</v>
+      </c>
+      <c r="G44" s="10">
+        <v>4899.75</v>
+      </c>
+      <c r="H44" s="19">
+        <f>F44*D44</f>
+        <v>196510</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C45" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="4">
+        <v>7</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="10">
+        <v>7210</v>
+      </c>
+      <c r="G45" s="10">
+        <v>7487.1</v>
+      </c>
+      <c r="H45" s="19">
+        <f t="shared" ref="H45:H52" si="10">F45*D45</f>
+        <v>50470</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C46" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="4">
+        <v>44</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="10">
+        <v>10420</v>
+      </c>
+      <c r="G46" s="10">
+        <v>10636.1</v>
+      </c>
+      <c r="H46" s="19">
+        <f t="shared" si="10"/>
+        <v>458480</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C47" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="4">
+        <v>3</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="10">
+        <v>16270</v>
+      </c>
+      <c r="G47" s="10">
+        <v>17498.099999999999</v>
+      </c>
+      <c r="H47" s="19">
+        <f t="shared" si="10"/>
+        <v>48810</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C48" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="4">
+        <v>14</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="10">
+        <v>13230</v>
+      </c>
+      <c r="G48" s="10">
+        <v>13446.7</v>
+      </c>
+      <c r="H48" s="19">
+        <f t="shared" si="10"/>
+        <v>185220</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C49" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="4">
+        <v>8</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="10">
+        <v>19470</v>
+      </c>
+      <c r="G49" s="10">
+        <v>20097.2</v>
+      </c>
+      <c r="H49" s="19">
+        <f t="shared" si="10"/>
+        <v>155760</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C50" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="4">
+        <v>3</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="10">
+        <v>23160</v>
+      </c>
+      <c r="G50" s="10">
+        <v>24628</v>
+      </c>
+      <c r="H50" s="19">
+        <f t="shared" si="10"/>
+        <v>69480</v>
+      </c>
+      <c r="L50">
+        <v>20680</v>
+      </c>
+      <c r="M50">
+        <f>L50/118%</f>
+        <v>17525.423728813559</v>
+      </c>
+      <c r="N50">
+        <f>M50*1.18</f>
+        <v>20680</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C51" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="4">
+        <v>9</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="10">
+        <v>26800</v>
+      </c>
+      <c r="G51" s="10">
+        <v>27626.6</v>
+      </c>
+      <c r="H51" s="19">
+        <f t="shared" si="10"/>
+        <v>241200</v>
+      </c>
+      <c r="L51">
+        <v>28460</v>
+      </c>
+      <c r="M51">
+        <f>L51/118%</f>
+        <v>24118.644067796613</v>
+      </c>
+      <c r="N51">
+        <f>M51*1.18</f>
+        <v>28460</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C52" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="4">
+        <v>5</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="10">
+        <v>36440</v>
+      </c>
+      <c r="G52" s="10">
+        <v>36490.800000000003</v>
+      </c>
+      <c r="H52" s="19">
+        <f t="shared" si="10"/>
+        <v>182200</v>
+      </c>
+      <c r="L52">
+        <v>38700</v>
+      </c>
+      <c r="M52">
+        <f>L52/118%</f>
+        <v>32796.610169491527</v>
+      </c>
+      <c r="N52">
+        <f>M52*1.18</f>
+        <v>38700</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C53" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="33">
-        <f>G38+G37</f>
-        <v>1019259.81</v>
-      </c>
-      <c r="K39">
-        <v>28460</v>
-      </c>
-      <c r="L39">
-        <f>K39/118%</f>
-        <v>24118.644067796613</v>
-      </c>
-    </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C40" s="32"/>
-      <c r="K40">
-        <v>38700</v>
-      </c>
-      <c r="L40">
-        <f>K40/118%</f>
-        <v>32796.610169491527</v>
-      </c>
-    </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C41" s="32"/>
-    </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C42" s="32"/>
-    </row>
-    <row r="44" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C44" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="4">
-        <v>1740</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="10">
-        <v>242.667</v>
-      </c>
-      <c r="G44" s="19">
-        <f>F44*D44</f>
-        <v>422240.58</v>
-      </c>
-    </row>
-    <row r="45" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C45" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="4">
-        <v>340</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" s="10">
-        <v>382.851</v>
-      </c>
-      <c r="G45" s="19">
-        <f t="shared" ref="G45:G54" si="10">F45*D45</f>
-        <v>130169.34</v>
-      </c>
-    </row>
-    <row r="46" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C46" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1560</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="10">
-        <v>553.30200000000002</v>
-      </c>
-      <c r="G46" s="19">
-        <f t="shared" si="10"/>
-        <v>863151.12</v>
-      </c>
-    </row>
-    <row r="47" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C47" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1240</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" s="10">
-        <v>702.51299999999992</v>
-      </c>
-      <c r="G47" s="19">
-        <f t="shared" si="10"/>
-        <v>871116.11999999988</v>
-      </c>
-    </row>
-    <row r="48" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C48" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="4">
-        <v>120</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" s="10">
-        <v>863.93700000000001</v>
-      </c>
-      <c r="G48" s="19">
-        <f t="shared" si="10"/>
-        <v>103672.44</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C49" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="4">
-        <v>200</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="10">
-        <v>930.6</v>
-      </c>
-      <c r="G49" s="19">
-        <f t="shared" si="10"/>
-        <v>186120</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C50" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" s="4">
-        <v>240</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="10">
-        <v>1229.7959999999998</v>
-      </c>
-      <c r="G50" s="19">
-        <f t="shared" si="10"/>
-        <v>295151.03999999998</v>
-      </c>
-      <c r="K50">
-        <v>20680</v>
-      </c>
-      <c r="L50">
-        <f>K50/118%</f>
-        <v>17525.423728813559</v>
-      </c>
-      <c r="M50">
-        <f>L50*1.18</f>
-        <v>20680</v>
-      </c>
-    </row>
-    <row r="51" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C51" s="17" t="s">
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="28">
+        <f>SUM(H44:H52)</f>
+        <v>1588130</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C54" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="15">
+        <f>H53*10%</f>
+        <v>158813</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C55" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="16">
+        <f>H53-H54</f>
+        <v>1429317</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C56" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="16">
+        <f>H55*18%</f>
+        <v>257277.06</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C57" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="16">
+        <f>H56+H55</f>
+        <v>1686594.06</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C59" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+    </row>
+    <row r="61" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C61" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="4">
         <v>44</v>
       </c>
-      <c r="D51" s="4">
-        <v>445</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F51" s="10">
-        <v>1281</v>
-      </c>
-      <c r="G51" s="19">
-        <f t="shared" si="10"/>
-        <v>570045</v>
-      </c>
-      <c r="K51">
-        <v>28460</v>
-      </c>
-      <c r="L51">
-        <f>K51/118%</f>
-        <v>24118.644067796613</v>
-      </c>
-      <c r="M51">
-        <f>L51*1.18</f>
-        <v>28460</v>
-      </c>
-    </row>
-    <row r="52" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C52" s="17" t="s">
+      <c r="E61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61" s="10">
+        <v>4899.75</v>
+      </c>
+      <c r="G61" s="10"/>
+      <c r="H61" s="19">
+        <f>F61*D61</f>
+        <v>215589</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C62" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="4">
+        <v>7</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" s="10">
+        <v>7487.1</v>
+      </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="19">
+        <f t="shared" ref="H62:H69" si="11">F62*D62</f>
+        <v>52409.700000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C63" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="4">
         <v>45</v>
       </c>
-      <c r="D52" s="4">
-        <v>160</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F52" s="10">
-        <v>1668.402</v>
-      </c>
-      <c r="G52" s="19">
-        <f t="shared" si="10"/>
-        <v>266944.32</v>
-      </c>
-      <c r="K52">
-        <v>38700</v>
-      </c>
-      <c r="L52">
-        <f>K52/118%</f>
-        <v>32796.610169491527</v>
-      </c>
-      <c r="M52">
-        <f>L52*1.18</f>
-        <v>38700</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C53" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="4">
-        <v>280</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" s="10">
-        <v>1742</v>
-      </c>
-      <c r="G53" s="19">
-        <f t="shared" si="10"/>
-        <v>487760</v>
-      </c>
-    </row>
-    <row r="54" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C54" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="4">
-        <v>0</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F54" s="10">
-        <v>1963</v>
-      </c>
-      <c r="G54" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="28">
-        <f>SUM(G44:G54)</f>
-        <v>4196369.96</v>
+      <c r="E63" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63" s="10">
+        <v>10636.1</v>
+      </c>
+      <c r="G63" s="10"/>
+      <c r="H63" s="19">
+        <f t="shared" si="11"/>
+        <v>478624.5</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C64" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="4">
+        <v>4</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64" s="10">
+        <v>17498.099999999999</v>
+      </c>
+      <c r="G64" s="10"/>
+      <c r="H64" s="19">
+        <f t="shared" si="11"/>
+        <v>69992.399999999994</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C65" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="4">
+        <v>14</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65" s="10">
+        <v>13446.7</v>
+      </c>
+      <c r="G65" s="10"/>
+      <c r="H65" s="19">
+        <f t="shared" si="11"/>
+        <v>188253.80000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C66" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="4">
+        <v>9</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F66" s="10">
+        <v>20097.2</v>
+      </c>
+      <c r="G66" s="10"/>
+      <c r="H66" s="19">
+        <f t="shared" si="11"/>
+        <v>180874.80000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C67" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="4">
+        <v>4</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" s="10">
+        <v>24628</v>
+      </c>
+      <c r="G67" s="10"/>
+      <c r="H67" s="19">
+        <f t="shared" si="11"/>
+        <v>98512</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C68" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="4">
+        <v>9</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68" s="10">
+        <v>27626.6</v>
+      </c>
+      <c r="G68" s="10"/>
+      <c r="H68" s="19">
+        <f t="shared" si="11"/>
+        <v>248639.4</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C69" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="4">
+        <v>6</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" s="10">
+        <v>36490.800000000003</v>
+      </c>
+      <c r="G69" s="10"/>
+      <c r="H69" s="19">
+        <f t="shared" si="11"/>
+        <v>218944.80000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C70" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="28">
+        <f>SUM(H61:H69)</f>
+        <v>1751840.4</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C71" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="15">
+        <f>H70*10%</f>
+        <v>175184.04</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C72" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="16">
+        <f>H70-H71</f>
+        <v>1576656.3599999999</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C73" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="16">
+        <f>H72*18%</f>
+        <v>283798.14479999995</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C74" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" s="51"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="16">
+        <f>H73+H72</f>
+        <v>1860454.5047999998</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="17">
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="C57:F57"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C38:F38"/>
